--- a/trunk/plan/problem&plan.xlsx
+++ b/trunk/plan/problem&plan.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DishStore" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu_Version " sheetId="2" r:id="rId2"/>
+    <sheet name="Order" sheetId="3" r:id="rId3"/>
+    <sheet name="Defination" sheetId="4" r:id="rId4"/>
+    <sheet name="TUAN" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="PID">Defination!$A$1:$A$2</definedName>
+    <definedName name="PID_Defind">Defination!$A$1:$A$2</definedName>
+    <definedName name="status_defind">Defination!$B$1:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Contrain Pk khi xóa đối tượng khóa ngoại ( xóa Dish -&gt;&gt; MenuLine)</t>
   </si>
@@ -51,9 +58,6 @@
     <t>Làm view hiển thị DataGrid với các table và tự động cập nhật view sau 30s</t>
   </si>
   <si>
-    <t>Cấu hình table ở Client</t>
-  </si>
-  <si>
     <t>Order line ở client</t>
   </si>
   <si>
@@ -69,10 +73,48 @@
     <t>B</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation with searh in indexDish </t>
+  </si>
+  <si>
+    <t>Dựa vào sự kiện value change của selection và ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bé </t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload và hiển thị hình trong liferay , có 2 cách :
++ Hinh nhỏ : dùng galary (ko nhớ rõ tên ) -&gt; gọi hình thông qua ID
++Ảnh lớn : lưu hình xuống file bằng cách sử dụng porlet document (thư viện fileray) 
+coi hình như 1 tài liệu đính kèm
+</t>
+  </si>
+  <si>
+    <t>Vấn đề về lưu version :
+Khi S tạo 1 đối tượng MenuLine (ML) thì sẽ sinh ra 1 record Uversion với type là Create
+Tiếp theo S xóa ML vừa tạo này đi thì sẽ xóa khỏi CSDL trên S và đồng thời tạo ra  
+1 record Uversion với type là Delete cùng với Id của ML vừa tạo
+=&gt; dẫn tới khi C sử lý Version thì nó sẽ đọc record Create trước và call lên S để lấy 
+ML mà lúc này ML này đã được xóa ==&gt; lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở S khi tạo 1 version với type là Delete MenuLine thì
+sẽ xóa tất cả nhứng cái version trước đó với ID của ML
+ trùng với ID ML muốn xóa </t>
   </si>
 </sst>
 </file>
@@ -108,13 +150,271 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -404,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,7 +741,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,10 +752,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -477,108 +786,491 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>PID_Defind</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>status_defind</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D29">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>PID_Defind</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>status_defind</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>PID_Defind</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>status_defind</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>status_defind</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>PID_Defind</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/plan/problem&plan.xlsx
+++ b/trunk/plan/problem&plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DishStore" sheetId="1" r:id="rId1"/>
@@ -97,13 +97,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Upload và hiển thị hình trong liferay , có 2 cách :
-+ Hinh nhỏ : dùng galary (ko nhớ rõ tên ) -&gt; gọi hình thông qua ID
-+Ảnh lớn : lưu hình xuống file bằng cách sử dụng porlet document (thư viện fileray) 
-coi hình như 1 tài liệu đính kèm
-</t>
-  </si>
-  <si>
     <t>Vấn đề về lưu version :
 Khi S tạo 1 đối tượng MenuLine (ML) thì sẽ sinh ra 1 record Uversion với type là Create
 Tiếp theo S xóa ML vừa tạo này đi thì sẽ xóa khỏi CSDL trên S và đồng thời tạo ra  
@@ -115,6 +108,13 @@
     <t xml:space="preserve">Ở S khi tạo 1 version với type là Delete MenuLine thì
 sẽ xóa tất cả nhứng cái version trước đó với ID của ML
  trùng với ID ML muốn xóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload và hiển thị hình trong liferay , có 2 cách :
++ Hinh nhỏ : dùng gallery (ko nhớ rõ tên ) -&gt; gọi hình thông qua ID
++Ảnh lớn : lưu hình xuống file bằng cách sử dụng porlet document (thư viện fileray) 
+coi hình như 1 tài liệu đính kèm
+</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -290,127 +290,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -843,10 +722,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -867,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,13 +803,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -980,26 +859,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D29">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1240,26 +1119,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Bé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Bé"</formula>
     </cfRule>
   </conditionalFormatting>
